--- a/watches_data.xlsx
+++ b/watches_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ccc12db6abae0d75/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A77A4984D1B2B2667EF19A70A02AE635290FC32F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA3B5234-D13D-43B1-B7FB-B5D1015195CE}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_99C6C8A2090D407DF2B0920F300EC61D68A8AE61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80896583-F1B7-4F57-8E78-9445F129D0D3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="210">
   <si>
     <t>Code</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t>Discounted Price</t>
   </si>
   <si>
@@ -424,14 +427,236 @@
     <t>W070A</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>W071A</t>
+  </si>
+  <si>
+    <t>Yacht-Master</t>
+  </si>
+  <si>
+    <t>BLACK, ROSE GOLD</t>
+  </si>
+  <si>
+    <t>W072A</t>
+  </si>
+  <si>
+    <t>W073A</t>
+  </si>
+  <si>
+    <t>BLACK, SILVER</t>
+  </si>
+  <si>
+    <t>W074A</t>
+  </si>
+  <si>
+    <t>Tiger Eye</t>
+  </si>
+  <si>
+    <t>W075A</t>
+  </si>
+  <si>
+    <t>W076A</t>
+  </si>
+  <si>
+    <t>W077A</t>
+  </si>
+  <si>
+    <t>FOSSIL</t>
+  </si>
+  <si>
+    <t>Neutra Chronograph</t>
+  </si>
+  <si>
+    <t>W078A</t>
+  </si>
+  <si>
+    <t>BROWN, BLACK</t>
+  </si>
+  <si>
+    <t>W079A</t>
+  </si>
+  <si>
+    <t>BROWN, WHITE, SILVER</t>
+  </si>
+  <si>
+    <t>W080A</t>
+  </si>
+  <si>
+    <t>Jacqueline Sun Moon</t>
+  </si>
+  <si>
+    <t>W081A</t>
+  </si>
+  <si>
+    <t>BROWN</t>
+  </si>
+  <si>
+    <t>W082A</t>
+  </si>
+  <si>
+    <t>COPPER, BLACK</t>
+  </si>
+  <si>
+    <t>W083A</t>
+  </si>
+  <si>
+    <t>COPPER, ROSE GOLD</t>
+  </si>
+  <si>
+    <t>W084A</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>W085A</t>
+  </si>
+  <si>
+    <t>W086A</t>
+  </si>
+  <si>
+    <t>W087A</t>
+  </si>
+  <si>
+    <t>COPPER, BLACK, ROSE GOLD</t>
+  </si>
+  <si>
+    <t>W088A</t>
+  </si>
+  <si>
+    <t>SILVER, ROSE GOLD, WHITE, DUAL TONE</t>
+  </si>
+  <si>
+    <t>W089A</t>
+  </si>
+  <si>
+    <t>W090A</t>
+  </si>
+  <si>
+    <t>W091A</t>
+  </si>
+  <si>
+    <t>W092A</t>
+  </si>
+  <si>
+    <t>W093A</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>W094A</t>
+  </si>
+  <si>
+    <t>W095A</t>
+  </si>
+  <si>
+    <t>W096A</t>
+  </si>
+  <si>
+    <t>W097A</t>
+  </si>
+  <si>
+    <t>Machine Chronograph</t>
+  </si>
+  <si>
+    <t>W098A</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>W099A</t>
+  </si>
+  <si>
+    <t>W100A</t>
+  </si>
+  <si>
+    <t>W101A</t>
+  </si>
+  <si>
+    <t>W102A</t>
+  </si>
+  <si>
+    <t>BLUE, BLACK</t>
+  </si>
+  <si>
+    <t>W103A</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>GOLD, SILVER, BLACK, DUAL TONE</t>
+  </si>
+  <si>
+    <t>W104A</t>
+  </si>
+  <si>
+    <t>W105A</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>W106A</t>
+  </si>
+  <si>
+    <t>W107A</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>W108A</t>
+  </si>
+  <si>
+    <t>W109A</t>
+  </si>
+  <si>
+    <t>Commuter</t>
+  </si>
+  <si>
+    <t>W110A</t>
+  </si>
+  <si>
+    <t>W111A</t>
+  </si>
+  <si>
+    <t>W112A</t>
+  </si>
+  <si>
+    <t>W113A</t>
+  </si>
+  <si>
+    <t>W114A</t>
+  </si>
+  <si>
+    <t>W115A</t>
+  </si>
+  <si>
+    <t>W116A</t>
+  </si>
+  <si>
+    <t>W117A</t>
+  </si>
+  <si>
+    <t>W118A</t>
+  </si>
+  <si>
+    <t>W119A</t>
+  </si>
+  <si>
+    <t>W120A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -482,6 +707,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -515,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -527,6 +758,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,10 +977,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:AA121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -770,19 +1002,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
@@ -806,13 +1038,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>3999</v>
@@ -821,25 +1053,25 @@
         <v>1499</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <v>3999</v>
@@ -848,25 +1080,25 @@
         <v>1499</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
         <v>3999</v>
@@ -875,25 +1107,25 @@
         <v>1499</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>3999</v>
@@ -902,25 +1134,25 @@
         <v>1499</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
         <v>3999</v>
@@ -929,25 +1161,25 @@
         <v>1499</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3">
         <v>3999</v>
@@ -956,25 +1188,25 @@
         <v>1499</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
         <v>3999</v>
@@ -983,25 +1215,25 @@
         <v>1499</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
         <v>3999</v>
@@ -1010,25 +1242,25 @@
         <v>1499</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
         <v>3999</v>
@@ -1037,25 +1269,25 @@
         <v>1499</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
         <v>3999</v>
@@ -1064,25 +1296,25 @@
         <v>1499</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3">
         <v>3999</v>
@@ -1091,25 +1323,25 @@
         <v>1499</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
         <v>3999</v>
@@ -1118,25 +1350,25 @@
         <v>1499</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>3999</v>
@@ -1145,25 +1377,25 @@
         <v>1499</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3">
         <v>3999</v>
@@ -1172,25 +1404,25 @@
         <v>1499</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3">
         <v>3999</v>
@@ -1199,25 +1431,25 @@
         <v>1499</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3">
         <v>3999</v>
@@ -1226,25 +1458,25 @@
         <v>1499</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3">
         <v>3999</v>
@@ -1253,25 +1485,25 @@
         <v>1499</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3">
         <v>3499</v>
@@ -1280,25 +1512,25 @@
         <v>1499</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3">
         <v>3499</v>
@@ -1307,25 +1539,25 @@
         <v>1499</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3">
         <v>3499</v>
@@ -1334,25 +1566,25 @@
         <v>1499</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3">
         <v>3499</v>
@@ -1361,25 +1593,25 @@
         <v>1499</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3">
         <v>3499</v>
@@ -1388,25 +1620,25 @@
         <v>1499</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3">
         <v>3499</v>
@@ -1415,25 +1647,25 @@
         <v>1499</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3">
         <v>3499</v>
@@ -1442,25 +1674,25 @@
         <v>1499</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3">
         <v>3499</v>
@@ -1469,25 +1701,25 @@
         <v>1499</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" s="3">
         <v>3499</v>
@@ -1496,25 +1728,25 @@
         <v>1499</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3">
         <v>3499</v>
@@ -1523,25 +1755,25 @@
         <v>1499</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D29" s="3">
         <v>3499</v>
@@ -1550,25 +1782,25 @@
         <v>1499</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" s="3">
         <v>3499</v>
@@ -1577,25 +1809,25 @@
         <v>1499</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D31" s="3">
         <v>3499</v>
@@ -1604,25 +1836,25 @@
         <v>1499</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" s="3">
         <v>3499</v>
@@ -1631,25 +1863,25 @@
         <v>1499</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" s="3">
         <v>3499</v>
@@ -1658,25 +1890,25 @@
         <v>1499</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" s="3">
         <v>3499</v>
@@ -1685,25 +1917,25 @@
         <v>1499</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" s="3">
         <v>3499</v>
@@ -1712,25 +1944,25 @@
         <v>1499</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" s="3">
         <v>3499</v>
@@ -1739,25 +1971,25 @@
         <v>1499</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37" s="3">
         <v>3499</v>
@@ -1766,25 +1998,25 @@
         <v>1499</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38" s="3">
         <v>3499</v>
@@ -1793,25 +2025,25 @@
         <v>1499</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" s="3">
         <v>3499</v>
@@ -1820,25 +2052,25 @@
         <v>1499</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="3">
         <v>3499</v>
@@ -1847,25 +2079,25 @@
         <v>1499</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D41" s="3">
         <v>3499</v>
@@ -1874,25 +2106,25 @@
         <v>1499</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D42" s="3">
         <v>4999</v>
@@ -1901,25 +2133,25 @@
         <v>1899</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="D43" s="3">
         <v>4999</v>
@@ -1928,25 +2160,25 @@
         <v>1899</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D44" s="3">
         <v>4999</v>
@@ -1955,25 +2187,25 @@
         <v>1899</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D45" s="3">
         <v>4999</v>
@@ -1982,25 +2214,25 @@
         <v>1899</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D46" s="3">
         <v>4999</v>
@@ -2009,25 +2241,25 @@
         <v>1899</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D47" s="3">
         <v>3499</v>
@@ -2036,25 +2268,25 @@
         <v>1499</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D48" s="3">
         <v>3499</v>
@@ -2063,25 +2295,25 @@
         <v>1499</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D49" s="3">
         <v>3299</v>
@@ -2090,25 +2322,25 @@
         <v>1399</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D50" s="3">
         <v>3299</v>
@@ -2117,25 +2349,25 @@
         <v>1399</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D51" s="3">
         <v>4999</v>
@@ -2144,25 +2376,25 @@
         <v>1999</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D52" s="3">
         <v>4999</v>
@@ -2171,25 +2403,25 @@
         <v>1999</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="D53" s="3">
         <v>4999</v>
@@ -2198,25 +2430,25 @@
         <v>1999</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D54" s="3">
         <v>2999</v>
@@ -2225,25 +2457,25 @@
         <v>1399</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D55" s="3">
         <v>2999</v>
@@ -2252,25 +2484,25 @@
         <v>1399</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D56" s="3">
         <v>2999</v>
@@ -2279,25 +2511,25 @@
         <v>1399</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D57" s="3">
         <v>3499</v>
@@ -2306,25 +2538,25 @@
         <v>1499</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D58" s="3">
         <v>3999</v>
@@ -2333,25 +2565,25 @@
         <v>1499</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D59" s="3">
         <v>3999</v>
@@ -2360,25 +2592,25 @@
         <v>1499</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D60" s="3">
         <v>3999</v>
@@ -2387,25 +2619,25 @@
         <v>1499</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D61" s="3">
         <v>3999</v>
@@ -2414,25 +2646,25 @@
         <v>1499</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D62" s="3">
         <v>3999</v>
@@ -2441,25 +2673,25 @@
         <v>1499</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D63" s="3">
         <v>3999</v>
@@ -2468,25 +2700,25 @@
         <v>1499</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D64" s="3">
         <v>3999</v>
@@ -2495,25 +2727,25 @@
         <v>1499</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I64" s="5"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D65" s="3">
         <v>3999</v>
@@ -2522,25 +2754,25 @@
         <v>1499</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D66" s="3">
         <v>3999</v>
@@ -2549,25 +2781,25 @@
         <v>1499</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="D67" s="3">
         <v>3999</v>
@@ -2576,25 +2808,25 @@
         <v>1499</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D68" s="3">
         <v>3999</v>
@@ -2603,25 +2835,25 @@
         <v>1499</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D69" s="3">
         <v>3999</v>
@@ -2630,25 +2862,25 @@
         <v>1499</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D70" s="3">
         <v>3999</v>
@@ -2657,25 +2889,25 @@
         <v>1499</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D71" s="3">
         <v>3999</v>
@@ -2684,15 +2916,1251 @@
         <v>1499</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="3">
+        <v>3299</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1399</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="3">
+        <v>3299</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1399</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" s="3">
+        <v>3299</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1399</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="3">
+        <v>5999</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1799</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="3">
+        <v>5999</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1799</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" s="3">
+        <v>5999</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1799</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="3">
+        <v>6499</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2299</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="3">
+        <v>6499</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2299</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" s="3">
+        <v>6499</v>
+      </c>
+      <c r="E80" s="3">
+        <v>2299</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E85" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D94" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" s="3">
+        <v>6999</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="3">
+        <v>3999</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1399</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D99" s="3">
+        <v>4999</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" s="3">
+        <v>4999</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" s="3">
+        <v>4999</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D102" s="3">
+        <v>4999</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103" s="3">
+        <v>4999</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D104" s="3">
+        <v>6499</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D105" s="3">
+        <v>6499</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" s="3">
+        <v>6499</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D107" s="3">
+        <v>6499</v>
+      </c>
+      <c r="E107" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D108" s="3">
+        <v>6499</v>
+      </c>
+      <c r="E108" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D109" s="3">
+        <v>6499</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D110" s="3">
+        <v>3499</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111" s="3">
+        <v>3499</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112" s="3">
+        <v>3499</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D113" s="3">
+        <v>3499</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D114" s="3">
+        <v>3499</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D115" s="3">
+        <v>3499</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/watches_data.xlsx
+++ b/watches_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ccc12db6abae0d75/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_99C6C8A2090D407DF2B0920F300EC61D68A8AE61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80896583-F1B7-4F57-8E78-9445F129D0D3}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_99C6C8A2090D407DF2B0920F300EC61D68A8AE61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EAC54C2-EDF8-4EFD-990C-EC137E76BDF7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="204">
   <si>
     <t>Code</t>
   </si>
@@ -632,24 +632,6 @@
   </si>
   <si>
     <t>W114A</t>
-  </si>
-  <si>
-    <t>W115A</t>
-  </si>
-  <si>
-    <t>W116A</t>
-  </si>
-  <si>
-    <t>W117A</t>
-  </si>
-  <si>
-    <t>W118A</t>
-  </si>
-  <si>
-    <t>W119A</t>
-  </si>
-  <si>
-    <t>W120A</t>
   </si>
 </sst>
 </file>
@@ -979,8 +961,8 @@
   </sheetPr>
   <dimension ref="A1:AA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B122" sqref="A116:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4115,52 +4097,28 @@
       <c r="I115" s="5"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/watches_data.xlsx
+++ b/watches_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ccc12db6abae0d75/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_99C6C8A2090D407DF2B0920F300EC61D68A8AE61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EAC54C2-EDF8-4EFD-990C-EC137E76BDF7}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_AEF61C5B9CED3068F8301919748DD947506C7DF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A375F2F2-F1DC-49A1-818F-3A3CAD0DFAA3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="243">
   <si>
     <t>Code</t>
   </si>
@@ -632,6 +632,123 @@
   </si>
   <si>
     <t>W114A</t>
+  </si>
+  <si>
+    <t>W115A</t>
+  </si>
+  <si>
+    <t>CASIO</t>
+  </si>
+  <si>
+    <t>Edifice</t>
+  </si>
+  <si>
+    <t>W116A</t>
+  </si>
+  <si>
+    <t>GOLD, SILVER</t>
+  </si>
+  <si>
+    <t>W117A</t>
+  </si>
+  <si>
+    <t>W118A</t>
+  </si>
+  <si>
+    <t>GOLD, BLACK, WHITE</t>
+  </si>
+  <si>
+    <t>W119A</t>
+  </si>
+  <si>
+    <t>W120A</t>
+  </si>
+  <si>
+    <t>Emporio Armani</t>
+  </si>
+  <si>
+    <t>Meccanico</t>
+  </si>
+  <si>
+    <t>W121A</t>
+  </si>
+  <si>
+    <t>W122A</t>
+  </si>
+  <si>
+    <t>W123A</t>
+  </si>
+  <si>
+    <t>W124A</t>
+  </si>
+  <si>
+    <t>BLACK, WHITE</t>
+  </si>
+  <si>
+    <t>W125A</t>
+  </si>
+  <si>
+    <t>BROWN, BLACK, SILVER</t>
+  </si>
+  <si>
+    <t>W126A</t>
+  </si>
+  <si>
+    <t>W127A</t>
+  </si>
+  <si>
+    <t>W128A</t>
+  </si>
+  <si>
+    <t>BROWN, WHITE</t>
+  </si>
+  <si>
+    <t>W129A</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>W130A</t>
+  </si>
+  <si>
+    <t>W131A</t>
+  </si>
+  <si>
+    <t>W132A</t>
+  </si>
+  <si>
+    <t>W133A</t>
+  </si>
+  <si>
+    <t>W134A</t>
+  </si>
+  <si>
+    <t>W135A</t>
+  </si>
+  <si>
+    <t>BROWM, BLACK</t>
+  </si>
+  <si>
+    <t>W136A</t>
+  </si>
+  <si>
+    <t>W137A</t>
+  </si>
+  <si>
+    <t>W138A</t>
+  </si>
+  <si>
+    <t>I-Cloud</t>
+  </si>
+  <si>
+    <t>W139A</t>
+  </si>
+  <si>
+    <t>W140A</t>
+  </si>
+  <si>
+    <t>Hampton</t>
   </si>
 </sst>
 </file>
@@ -959,14 +1076,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA121"/>
+  <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B122" sqref="A116:B122"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I118" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="39.21875" customWidth="1"/>
@@ -4097,28 +4215,922 @@
       <c r="I115" s="5"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D116" s="3">
+        <v>5999</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1299</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="5"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D117" s="3">
+        <v>5999</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1299</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D118" s="3">
+        <v>5999</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1299</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D119" s="3">
+        <v>5999</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1299</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="A120" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D120" s="3">
+        <v>5999</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1299</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D121" s="3">
+        <v>8999</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D122" s="3">
+        <v>8999</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D123" s="3">
+        <v>8999</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D124" s="3">
+        <v>8999</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2599</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D125" s="3">
+        <v>8999</v>
+      </c>
+      <c r="E125" s="3">
+        <v>2599</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" s="4"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D126" s="3">
+        <v>8999</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2599</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D127" s="3">
+        <v>8999</v>
+      </c>
+      <c r="E127" s="3">
+        <v>2599</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D128" s="3">
+        <v>8999</v>
+      </c>
+      <c r="E128" s="3">
+        <v>2599</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D129" s="3">
+        <v>8999</v>
+      </c>
+      <c r="E129" s="3">
+        <v>2599</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D130" s="3">
+        <v>3499</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D131" s="3">
+        <v>3499</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D132" s="3">
+        <v>3499</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D133" s="3">
+        <v>3499</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D134" s="3">
+        <v>3499</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D135" s="3">
+        <v>3799</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1499</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D136" s="3">
+        <v>4999</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1799</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D137" s="3">
+        <v>4999</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D138" s="3">
+        <v>4999</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D139" s="3">
+        <v>3799</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1899</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D140" s="3">
+        <v>3799</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1899</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D141" s="3">
+        <v>3799</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
